--- a/db_feed/combined/DPPDTT_dataset_feed_D6_ALcopy.xlsx
+++ b/db_feed/combined/DPPDTT_dataset_feed_D6_ALcopy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8EEDB-DA5F-441A-9F06-37C2FB443353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEBB07-F3C7-4E60-B919-28089B402158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPPDTT_D6_combined (raw)" sheetId="1" r:id="rId1"/>
@@ -1922,7 +1922,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1950,6 +1950,10 @@
     <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="19" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2314,9 +2318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR179"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ39" sqref="AZ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6448,1030 +6452,1030 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="2:69" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="27">
         <v>2016</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="27">
         <v>199</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="27">
         <v>55</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="27">
         <v>3.62</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="27">
         <v>100</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="27">
         <v>180</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="27">
         <v>4</v>
       </c>
-      <c r="U36" s="18" t="s">
+      <c r="U36" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="V36" s="18" t="s">
+      <c r="V36" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W36" s="18">
+      <c r="W36" s="27">
         <v>350</v>
       </c>
-      <c r="Z36" s="18" t="s">
+      <c r="Z36" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB36" s="18" t="s">
+      <c r="AB36" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AC36" s="18">
+      <c r="AC36" s="27">
         <v>80</v>
       </c>
-      <c r="AD36" s="18">
+      <c r="AD36" s="27">
         <v>1500</v>
       </c>
-      <c r="AE36" s="18">
+      <c r="AE36" s="27">
         <v>11.5</v>
       </c>
-      <c r="AF36" s="18" t="s">
+      <c r="AF36" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AG36" s="18" t="s">
+      <c r="AG36" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AH36" s="18">
+      <c r="AH36" s="27">
         <v>1500</v>
       </c>
-      <c r="AI36" s="18">
+      <c r="AI36" s="27">
         <v>150</v>
       </c>
-      <c r="AN36" s="18" t="s">
+      <c r="AN36" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AP36" s="18">
+      <c r="AP36" s="27">
         <v>25</v>
       </c>
-      <c r="AQ36" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR36" s="18" t="s">
+      <c r="AQ36" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AS36" s="18">
+      <c r="AS36" s="27">
         <v>50</v>
       </c>
-      <c r="AV36" s="18">
+      <c r="AV36" s="27">
         <v>3.65</v>
       </c>
-      <c r="BA36" s="18">
+      <c r="BA36" s="27">
         <v>1.1599999999999999</v>
       </c>
-      <c r="BE36" s="18">
+      <c r="BE36" s="27">
         <v>9.6999999999999993</v>
       </c>
-      <c r="BG36" s="22">
+      <c r="BG36" s="28">
         <v>200000</v>
       </c>
-      <c r="BH36" s="18" t="s">
+      <c r="BH36" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BI36" s="18" t="s">
+      <c r="BI36" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BL36" s="18">
+      <c r="BL36" s="27">
         <v>-60</v>
       </c>
-      <c r="BM36" s="18">
+      <c r="BM36" s="27">
         <v>20</v>
       </c>
-      <c r="BN36" s="18">
+      <c r="BN36" s="27">
         <v>-60</v>
       </c>
-      <c r="BO36" s="18">
+      <c r="BO36" s="27">
         <v>0</v>
       </c>
-      <c r="BP36" s="18">
+      <c r="BP36" s="27">
         <v>-60</v>
       </c>
-      <c r="BQ36" s="18">
+      <c r="BQ36" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+    <row r="37" spans="2:69" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="27">
         <v>2016</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="27">
         <v>199</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="27">
         <v>55</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="27">
         <v>3.62</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="27">
         <v>80</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="K37" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="27">
         <v>180</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="27">
         <v>4</v>
       </c>
-      <c r="Q37" s="18" t="s">
+      <c r="Q37" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S37" s="18">
+      <c r="S37" s="27">
         <v>1.01</v>
       </c>
-      <c r="T37" s="18">
+      <c r="T37" s="27">
         <v>20</v>
       </c>
-      <c r="U37" s="18" t="s">
+      <c r="U37" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="V37" s="18" t="s">
+      <c r="V37" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W37" s="18">
+      <c r="W37" s="27">
         <v>350</v>
       </c>
-      <c r="Z37" s="18" t="s">
+      <c r="Z37" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB37" s="18" t="s">
+      <c r="AB37" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="18">
+      <c r="AC37" s="27">
         <v>80</v>
       </c>
-      <c r="AD37" s="18">
+      <c r="AD37" s="27">
         <v>1500</v>
       </c>
-      <c r="AE37" s="18">
+      <c r="AE37" s="27">
         <v>11.5</v>
       </c>
-      <c r="AF37" s="18" t="s">
+      <c r="AF37" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AG37" s="18" t="s">
+      <c r="AG37" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AH37" s="18">
+      <c r="AH37" s="27">
         <v>1500</v>
       </c>
-      <c r="AI37" s="18">
+      <c r="AI37" s="27">
         <v>150</v>
       </c>
-      <c r="AN37" s="18" t="s">
+      <c r="AN37" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AP37" s="18">
+      <c r="AP37" s="27">
         <v>25</v>
       </c>
-      <c r="AQ37" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR37" s="18" t="s">
+      <c r="AQ37" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BA37" s="18">
+      <c r="BA37" s="27">
         <v>3.39</v>
       </c>
-      <c r="BE37" s="18">
+      <c r="BE37" s="27">
         <v>6.4</v>
       </c>
-      <c r="BG37" s="22">
+      <c r="BG37" s="28">
         <v>2000000</v>
       </c>
-      <c r="BH37" s="18" t="s">
+      <c r="BH37" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BI37" s="18" t="s">
+      <c r="BI37" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BL37" s="18">
+      <c r="BL37" s="27">
         <v>-60</v>
       </c>
-      <c r="BM37" s="18">
+      <c r="BM37" s="27">
         <v>20</v>
       </c>
-      <c r="BN37" s="18">
+      <c r="BN37" s="27">
         <v>-60</v>
       </c>
-      <c r="BO37" s="18">
+      <c r="BO37" s="27">
         <v>0</v>
       </c>
-      <c r="BP37" s="18">
+      <c r="BP37" s="27">
         <v>-60</v>
       </c>
-      <c r="BQ37" s="18">
+      <c r="BQ37" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+    <row r="38" spans="2:69" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="27">
         <v>2016</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="27">
         <v>199</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="27">
         <v>55</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="27">
         <v>3.62</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="27">
         <v>60</v>
       </c>
-      <c r="K38" s="18" t="s">
+      <c r="K38" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="27">
         <v>180</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="27">
         <v>4</v>
       </c>
-      <c r="Q38" s="18" t="s">
+      <c r="Q38" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R38" s="18">
+      <c r="R38" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S38" s="18">
+      <c r="S38" s="27">
         <v>1.01</v>
       </c>
-      <c r="T38" s="18">
+      <c r="T38" s="27">
         <v>40</v>
       </c>
-      <c r="U38" s="18" t="s">
+      <c r="U38" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="V38" s="18" t="s">
+      <c r="V38" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W38" s="18">
+      <c r="W38" s="27">
         <v>350</v>
       </c>
-      <c r="Z38" s="18" t="s">
+      <c r="Z38" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB38" s="18" t="s">
+      <c r="AB38" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AC38" s="18">
+      <c r="AC38" s="27">
         <v>80</v>
       </c>
-      <c r="AD38" s="18">
+      <c r="AD38" s="27">
         <v>1500</v>
       </c>
-      <c r="AE38" s="18">
+      <c r="AE38" s="27">
         <v>11.5</v>
       </c>
-      <c r="AF38" s="18" t="s">
+      <c r="AF38" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AG38" s="18" t="s">
+      <c r="AG38" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AH38" s="18">
+      <c r="AH38" s="27">
         <v>1500</v>
       </c>
-      <c r="AI38" s="18">
+      <c r="AI38" s="27">
         <v>150</v>
       </c>
-      <c r="AN38" s="18" t="s">
+      <c r="AN38" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AP38" s="18">
+      <c r="AP38" s="27">
         <v>25</v>
       </c>
-      <c r="AQ38" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR38" s="18" t="s">
+      <c r="AQ38" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AS38" s="18">
+      <c r="AS38" s="27">
         <v>50</v>
       </c>
-      <c r="BA38" s="18">
+      <c r="BA38" s="27">
         <v>5.8</v>
       </c>
-      <c r="BE38" s="18">
+      <c r="BE38" s="27">
         <v>6.3</v>
       </c>
-      <c r="BG38" s="22">
+      <c r="BG38" s="28">
         <v>3000000</v>
       </c>
-      <c r="BH38" s="18" t="s">
+      <c r="BH38" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BI38" s="18" t="s">
+      <c r="BI38" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BL38" s="18">
+      <c r="BL38" s="27">
         <v>-60</v>
       </c>
-      <c r="BM38" s="18">
+      <c r="BM38" s="27">
         <v>20</v>
       </c>
-      <c r="BN38" s="18">
+      <c r="BN38" s="27">
         <v>-60</v>
       </c>
-      <c r="BO38" s="18">
+      <c r="BO38" s="27">
         <v>0</v>
       </c>
-      <c r="BP38" s="18">
+      <c r="BP38" s="27">
         <v>-60</v>
       </c>
-      <c r="BQ38" s="18">
+      <c r="BQ38" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
+    <row r="39" spans="2:69" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="25">
         <v>2016</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="25">
         <v>199</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="25">
         <v>55</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="25">
         <v>3.62</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="25">
         <v>40</v>
       </c>
-      <c r="K39" s="18" t="s">
+      <c r="K39" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="25">
         <v>180</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="25">
         <v>4</v>
       </c>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="R39" s="18">
+      <c r="R39" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S39" s="18">
+      <c r="S39" s="25">
         <v>1.01</v>
       </c>
-      <c r="T39" s="18">
+      <c r="T39" s="25">
         <v>60</v>
       </c>
-      <c r="U39" s="18" t="s">
+      <c r="U39" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="V39" s="18" t="s">
+      <c r="V39" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="W39" s="18">
+      <c r="W39" s="25">
         <v>350</v>
       </c>
-      <c r="Z39" s="18" t="s">
+      <c r="Z39" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AB39" s="18" t="s">
+      <c r="AB39" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AC39" s="18">
+      <c r="AC39" s="25">
         <v>80</v>
       </c>
-      <c r="AD39" s="18">
+      <c r="AD39" s="25">
         <v>1500</v>
       </c>
-      <c r="AE39" s="18">
+      <c r="AE39" s="25">
         <v>11.5</v>
       </c>
-      <c r="AF39" s="18" t="s">
+      <c r="AF39" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AG39" s="18" t="s">
+      <c r="AG39" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AH39" s="18">
+      <c r="AH39" s="25">
         <v>1500</v>
       </c>
-      <c r="AI39" s="18">
+      <c r="AI39" s="25">
         <v>150</v>
       </c>
-      <c r="AN39" s="18" t="s">
+      <c r="AN39" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AP39" s="18">
+      <c r="AP39" s="25">
         <v>25</v>
       </c>
-      <c r="AQ39" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR39" s="18" t="s">
+      <c r="AQ39" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="BA39" s="18">
+      <c r="BA39" s="25">
         <v>6.76</v>
       </c>
-      <c r="BE39" s="18">
+      <c r="BE39" s="25">
         <v>1.7</v>
       </c>
-      <c r="BG39" s="22">
+      <c r="BG39" s="26">
         <v>10000000</v>
       </c>
-      <c r="BH39" s="18" t="s">
+      <c r="BH39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BI39" s="18" t="s">
+      <c r="BI39" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="BL39" s="18">
+      <c r="BL39" s="25">
         <v>-60</v>
       </c>
-      <c r="BM39" s="18">
+      <c r="BM39" s="25">
         <v>20</v>
       </c>
-      <c r="BN39" s="18">
+      <c r="BN39" s="25">
         <v>-60</v>
       </c>
-      <c r="BO39" s="18">
+      <c r="BO39" s="25">
         <v>0</v>
       </c>
-      <c r="BP39" s="18">
+      <c r="BP39" s="25">
         <v>-60</v>
       </c>
-      <c r="BQ39" s="18">
+      <c r="BQ39" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
+    <row r="40" spans="2:69" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="27">
         <v>2016</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="27">
         <v>199</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="27">
         <v>55</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="27">
         <v>3.62</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="27">
         <v>20</v>
       </c>
-      <c r="K40" s="18" t="s">
+      <c r="K40" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40" s="27">
         <v>180</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="27">
         <v>4</v>
       </c>
-      <c r="Q40" s="18" t="s">
+      <c r="Q40" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R40" s="18">
+      <c r="R40" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S40" s="18">
+      <c r="S40" s="27">
         <v>1.01</v>
       </c>
-      <c r="T40" s="18">
+      <c r="T40" s="27">
         <v>80</v>
       </c>
-      <c r="U40" s="18" t="s">
+      <c r="U40" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="V40" s="18" t="s">
+      <c r="V40" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W40" s="18">
+      <c r="W40" s="27">
         <v>350</v>
       </c>
-      <c r="Z40" s="18" t="s">
+      <c r="Z40" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB40" s="18" t="s">
+      <c r="AB40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AC40" s="18">
+      <c r="AC40" s="27">
         <v>80</v>
       </c>
-      <c r="AD40" s="18">
+      <c r="AD40" s="27">
         <v>1500</v>
       </c>
-      <c r="AE40" s="18">
+      <c r="AE40" s="27">
         <v>11.5</v>
       </c>
-      <c r="AF40" s="18" t="s">
+      <c r="AF40" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AG40" s="18" t="s">
+      <c r="AG40" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AH40" s="18">
+      <c r="AH40" s="27">
         <v>1500</v>
       </c>
-      <c r="AI40" s="18">
+      <c r="AI40" s="27">
         <v>150</v>
       </c>
-      <c r="AN40" s="18" t="s">
+      <c r="AN40" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AP40" s="18">
+      <c r="AP40" s="27">
         <v>25</v>
       </c>
-      <c r="AQ40" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR40" s="18" t="s">
+      <c r="AQ40" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BA40" s="18">
+      <c r="BA40" s="27">
         <v>2.57</v>
       </c>
-      <c r="BE40" s="18">
+      <c r="BE40" s="27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BG40" s="22">
+      <c r="BG40" s="28">
         <v>10000000</v>
       </c>
-      <c r="BH40" s="18" t="s">
+      <c r="BH40" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BI40" s="18" t="s">
+      <c r="BI40" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BL40" s="18">
+      <c r="BL40" s="27">
         <v>-60</v>
       </c>
-      <c r="BM40" s="18">
+      <c r="BM40" s="27">
         <v>20</v>
       </c>
-      <c r="BN40" s="18">
+      <c r="BN40" s="27">
         <v>-60</v>
       </c>
-      <c r="BO40" s="18">
+      <c r="BO40" s="27">
         <v>0</v>
       </c>
-      <c r="BP40" s="18">
+      <c r="BP40" s="27">
         <v>-60</v>
       </c>
-      <c r="BQ40" s="18">
+      <c r="BQ40" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+    <row r="41" spans="2:69" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="27">
         <v>2016</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="27">
         <v>199</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="27">
         <v>55</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="27">
         <v>3.62</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="27">
         <v>40</v>
       </c>
-      <c r="K41" s="18" t="s">
+      <c r="K41" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="27">
         <v>180</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="27">
         <v>4</v>
       </c>
-      <c r="Q41" s="18" t="s">
+      <c r="Q41" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R41" s="18">
+      <c r="R41" s="27">
         <v>19.7</v>
       </c>
-      <c r="S41" s="18">
+      <c r="S41" s="27">
         <v>1.03</v>
       </c>
-      <c r="T41" s="18">
+      <c r="T41" s="27">
         <v>60</v>
       </c>
-      <c r="U41" s="18" t="s">
+      <c r="U41" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="18" t="s">
+      <c r="V41" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W41" s="18">
+      <c r="W41" s="27">
         <v>350</v>
       </c>
-      <c r="Z41" s="18" t="s">
+      <c r="Z41" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB41" s="18" t="s">
+      <c r="AB41" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AC41" s="18">
+      <c r="AC41" s="27">
         <v>80</v>
       </c>
-      <c r="AD41" s="18">
+      <c r="AD41" s="27">
         <v>1500</v>
       </c>
-      <c r="AE41" s="18">
+      <c r="AE41" s="27">
         <v>11.5</v>
       </c>
-      <c r="AF41" s="18" t="s">
+      <c r="AF41" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AG41" s="18" t="s">
+      <c r="AG41" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AH41" s="18">
+      <c r="AH41" s="27">
         <v>1500</v>
       </c>
-      <c r="AI41" s="18">
+      <c r="AI41" s="27">
         <v>150</v>
       </c>
-      <c r="AN41" s="18" t="s">
+      <c r="AN41" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AP41" s="18">
+      <c r="AP41" s="27">
         <v>25</v>
       </c>
-      <c r="AQ41" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR41" s="18" t="s">
+      <c r="AQ41" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BA41" s="18">
+      <c r="BA41" s="27">
         <v>6</v>
       </c>
-      <c r="BH41" s="18" t="s">
+      <c r="BH41" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BI41" s="18" t="s">
+      <c r="BI41" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BL41" s="18">
+      <c r="BL41" s="27">
         <v>-60</v>
       </c>
-      <c r="BM41" s="18">
+      <c r="BM41" s="27">
         <v>20</v>
       </c>
-      <c r="BN41" s="18">
+      <c r="BN41" s="27">
         <v>-60</v>
       </c>
-      <c r="BO41" s="18">
+      <c r="BO41" s="27">
         <v>0</v>
       </c>
-      <c r="BP41" s="18">
+      <c r="BP41" s="27">
         <v>-60</v>
       </c>
-      <c r="BQ41" s="18">
+      <c r="BQ41" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+    <row r="42" spans="2:69" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="27">
         <v>2016</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="27">
         <v>199</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="27">
         <v>55</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="27">
         <v>3.62</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="27">
         <v>40</v>
       </c>
-      <c r="K42" s="18" t="s">
+      <c r="K42" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="27">
         <v>180</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="27">
         <v>4</v>
       </c>
-      <c r="Q42" s="18" t="s">
+      <c r="Q42" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R42" s="18">
+      <c r="R42" s="27">
         <v>97.1</v>
       </c>
-      <c r="S42" s="18">
+      <c r="S42" s="27">
         <v>1.03</v>
       </c>
-      <c r="T42" s="18">
+      <c r="T42" s="27">
         <v>60</v>
       </c>
-      <c r="U42" s="18" t="s">
+      <c r="U42" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="V42" s="18" t="s">
+      <c r="V42" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W42" s="18">
+      <c r="W42" s="27">
         <v>350</v>
       </c>
-      <c r="Z42" s="18" t="s">
+      <c r="Z42" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB42" s="18" t="s">
+      <c r="AB42" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AC42" s="18">
+      <c r="AC42" s="27">
         <v>80</v>
       </c>
-      <c r="AD42" s="18">
+      <c r="AD42" s="27">
         <v>1500</v>
       </c>
-      <c r="AE42" s="18">
+      <c r="AE42" s="27">
         <v>11.5</v>
       </c>
-      <c r="AF42" s="18" t="s">
+      <c r="AF42" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AG42" s="18" t="s">
+      <c r="AG42" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AH42" s="18">
+      <c r="AH42" s="27">
         <v>1500</v>
       </c>
-      <c r="AI42" s="18">
+      <c r="AI42" s="27">
         <v>150</v>
       </c>
-      <c r="AN42" s="18" t="s">
+      <c r="AN42" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AP42" s="18">
+      <c r="AP42" s="27">
         <v>25</v>
       </c>
-      <c r="AQ42" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR42" s="18" t="s">
+      <c r="AQ42" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BA42" s="18">
+      <c r="BA42" s="27">
         <v>5</v>
       </c>
-      <c r="BH42" s="18" t="s">
+      <c r="BH42" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BI42" s="18" t="s">
+      <c r="BI42" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BL42" s="18">
+      <c r="BL42" s="27">
         <v>-60</v>
       </c>
-      <c r="BM42" s="18">
+      <c r="BM42" s="27">
         <v>20</v>
       </c>
-      <c r="BN42" s="18">
+      <c r="BN42" s="27">
         <v>-60</v>
       </c>
-      <c r="BO42" s="18">
+      <c r="BO42" s="27">
         <v>0</v>
       </c>
-      <c r="BP42" s="18">
+      <c r="BP42" s="27">
         <v>-60</v>
       </c>
-      <c r="BQ42" s="18">
+      <c r="BQ42" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+    <row r="43" spans="2:69" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="27">
         <v>2016</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="27">
         <v>199</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="27">
         <v>55</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="27">
         <v>3.62</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="27">
         <v>40</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="27">
         <v>180</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="27">
         <v>4</v>
       </c>
-      <c r="Q43" s="18" t="s">
+      <c r="Q43" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R43" s="18">
+      <c r="R43" s="27">
         <v>301.60000000000002</v>
       </c>
-      <c r="S43" s="18">
+      <c r="S43" s="27">
         <v>1.04</v>
       </c>
-      <c r="T43" s="18">
+      <c r="T43" s="27">
         <v>60</v>
       </c>
-      <c r="U43" s="18" t="s">
+      <c r="U43" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="V43" s="18" t="s">
+      <c r="V43" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W43" s="18">
+      <c r="W43" s="27">
         <v>350</v>
       </c>
-      <c r="Z43" s="18" t="s">
+      <c r="Z43" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB43" s="18" t="s">
+      <c r="AB43" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AC43" s="18">
+      <c r="AC43" s="27">
         <v>80</v>
       </c>
-      <c r="AD43" s="18">
+      <c r="AD43" s="27">
         <v>1500</v>
       </c>
-      <c r="AE43" s="18">
+      <c r="AE43" s="27">
         <v>11.5</v>
       </c>
-      <c r="AF43" s="18" t="s">
+      <c r="AF43" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AG43" s="18" t="s">
+      <c r="AG43" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AH43" s="18">
+      <c r="AH43" s="27">
         <v>1500</v>
       </c>
-      <c r="AI43" s="18">
+      <c r="AI43" s="27">
         <v>150</v>
       </c>
-      <c r="AN43" s="18" t="s">
+      <c r="AN43" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AP43" s="18">
+      <c r="AP43" s="27">
         <v>25</v>
       </c>
-      <c r="AQ43" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR43" s="18" t="s">
+      <c r="AQ43" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BA43" s="18">
+      <c r="BA43" s="27">
         <v>4</v>
       </c>
-      <c r="BH43" s="18" t="s">
+      <c r="BH43" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BI43" s="18" t="s">
+      <c r="BI43" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BL43" s="18">
+      <c r="BL43" s="27">
         <v>-60</v>
       </c>
-      <c r="BM43" s="18">
+      <c r="BM43" s="27">
         <v>20</v>
       </c>
-      <c r="BN43" s="18">
+      <c r="BN43" s="27">
         <v>-60</v>
       </c>
-      <c r="BO43" s="18">
+      <c r="BO43" s="27">
         <v>0</v>
       </c>
-      <c r="BP43" s="18">
+      <c r="BP43" s="27">
         <v>-60</v>
       </c>
-      <c r="BQ43" s="18">
+      <c r="BQ43" s="27">
         <v>0</v>
       </c>
     </row>
@@ -26304,7 +26308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51F8CDF-CF55-4E90-B7AF-84713B0801FF}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
